--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO3_FED22-2회차\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO3\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,24 +159,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">화면 설계
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>----------------------
-화면 구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">자바스크립트 + 제이쿼리 실습 및 응용
 </t>
     </r>
@@ -223,14 +205,6 @@
     <t>발표</t>
   </si>
   <si>
-    <t>※ 휴일: 삼일절(3/1), 대통령선거(3/9)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -280,6 +254,40 @@
     <t>취업세미나
 5/30(월)
 7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 어린이날(5/5), 지방선거(6/1), 현충일(6/6)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화면 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+----------------------
+화면 구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -609,6 +617,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,45 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,39 +1010,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1072,231 +1080,231 @@
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="16">
         <v>44690</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="16">
         <v>44694</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="18">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="21">
         <v>44693</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="29"/>
+      <c r="J6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>44697</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="16">
         <v>44701</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="18">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="G7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="21">
         <v>44701</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="29"/>
+      <c r="I7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="16">
         <v>44704</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="16">
         <v>44708</v>
       </c>
-      <c r="F8" s="25">
-        <f t="shared" ref="F5:F8" si="0">DAYS360(C8,E8)+1</f>
+      <c r="F8" s="18">
+        <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="29"/>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <v>44711</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="16">
         <v>44715</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <f>DAYS360(C9,E9)+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="21">
         <v>44711</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="27" t="s">
+      <c r="I9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>44</v>
+      <c r="K9" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="16">
         <v>44719</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="16">
         <v>44722</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="18">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="J10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="16">
         <v>44725</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>44729</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="18">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="28">
+      <c r="G11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="21">
         <v>44726</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="29"/>
+      <c r="I11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="16">
         <v>44732</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="16">
         <v>44734</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="18">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="28">
+      <c r="G12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21">
         <v>44734</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="27" t="s">
+      <c r="I12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1308,30 +1316,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="B15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -571,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,12 +656,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +675,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +1020,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1010,39 +1040,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1063,63 +1093,63 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="36">
         <v>44683</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="36">
         <v>44687</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="38">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>44690</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>44694</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="33">
         <v>44693</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
@@ -1316,30 +1346,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,6 +656,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,34 +707,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1026,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,39 +1046,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1093,94 +1099,94 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="29">
         <v>44683</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="29">
         <v>44687</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="31">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="42"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="29">
         <v>44690</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="29">
         <v>44694</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="31">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="43">
         <v>44693</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>44697</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>44701</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="26">
         <v>44701</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
@@ -1346,30 +1352,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -686,6 +686,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,12 +711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,39 +1046,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="G6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="36">
         <v>44693</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -1154,68 +1154,68 @@
       <c r="J6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="29">
         <v>44697</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="29">
         <v>44701</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="31">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="36">
         <v>44701</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>44704</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>44708</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
@@ -1352,30 +1352,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -251,12 +251,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>취업세미나
-5/30(월)
-7,8교시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 휴일: 어린이날(5/5), 지방선거(6/1), 현충일(6/6)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>화면 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업세미나
+5/24(화)
+7,8교시</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -659,9 +659,6 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,39 +1046,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1099,93 +1099,93 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>44683</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>44687</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="34" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>44690</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>44694</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>44693</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>44697</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>44701</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="G7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="35">
         <v>44701</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="12" t="s">
@@ -1215,7 +1215,9 @@
       <c r="J8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
@@ -1246,9 +1248,7 @@
       <c r="J9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -1352,30 +1352,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="B15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -119,11 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-VOGUE PJ / 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>메인구현 : 상세구현하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -188,14 +183,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메인구현 : 레이아웃 + 세부코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 상세구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>메인구현 : 상세구현하기
 +서브페이지구현포트폴리오 
 JS코딩</t>
@@ -207,11 +194,6 @@
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본 / CSS 애니메이션, 
-CGV PJ / VOGUE PJ / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -288,6 +270,24 @@
     <t>취업세미나
 5/24(화)
 7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 레이아웃 + 세부코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript 기본 / CSS 애니메이션, 
+CGV PJ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션, 
+VOGUE PJ / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -689,6 +689,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,39 +1046,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1116,12 +1116,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" s="34"/>
     </row>
@@ -1143,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="35">
         <v>44693</v>
@@ -1152,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="36"/>
     </row>
@@ -1174,16 +1174,16 @@
         <v>5</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" s="35">
         <v>44701</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="36"/>
     </row>
@@ -1206,17 +1206,17 @@
         <v>5</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,10 +1243,10 @@
         <v>44711</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -1268,14 +1268,14 @@
         <v>4</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K10" s="24"/>
     </row>
@@ -1297,16 +1297,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="21">
         <v>44726</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K11" s="22"/>
     </row>
@@ -1328,19 +1328,19 @@
         <v>3</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="21">
         <v>44734</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1352,30 +1352,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,7 +1029,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1188,67 +1191,67 @@
       <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="28">
         <v>44704</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="28">
         <v>44708</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="30">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>44711</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>44715</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <f>DAYS360(C9,E9)+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="26">
         <v>44711</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,9 +635,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,6 +689,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1028,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,185 +1099,185 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>44683</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>44687</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>44690</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>44694</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>44693</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>44697</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>44701</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>44701</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>44704</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>44708</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="29" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="27">
         <v>44711</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="27">
         <v>44715</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="29">
         <f>DAYS360(C9,E9)+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="34">
         <v>44711</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="32" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>44719</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>44722</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
@@ -1299,19 +1296,19 @@
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>44726</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
@@ -1330,19 +1327,19 @@
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>44734</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>36</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,18 +641,12 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,9 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,6 +702,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1023,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,39 +1043,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1099,216 +1096,216 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>44683</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>44687</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>44690</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>44694</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>44693</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>44697</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>44701</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <v>44701</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>44704</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>44708</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>44711</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>44715</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <f>DAYS360(C9,E9)+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="32">
         <v>44711</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="25">
         <v>44719</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="25">
         <v>44722</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="27">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>44725</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>44729</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="23">
         <v>44726</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
@@ -1327,7 +1324,7 @@
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="20">
@@ -1339,7 +1336,7 @@
       <c r="J12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1352,30 +1349,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,30 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,6 +659,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,11 +683,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,7 +1002,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1043,39 +1022,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1096,247 +1075,247 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="17">
         <v>44683</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="17">
         <v>44687</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="19">
         <f>DAYS360(C5,E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <v>44690</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="17">
         <v>44694</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="19">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="24">
         <v>44693</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="17">
         <v>44697</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="17">
         <v>44701</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="19">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="24">
         <v>44701</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <v>44704</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="17">
         <v>44708</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="19">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="17">
         <v>44711</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="17">
         <v>44715</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="19">
         <f>DAYS360(C9,E9)+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="24">
         <v>44711</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="17">
         <v>44719</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="17">
         <v>44722</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="19">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="17">
         <v>44725</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="17">
         <v>44729</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="19">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>44726</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>44732</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>44734</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="15">
         <v>44734</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="35" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1349,30 +1328,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-2회차_주단위상세일정.xlsx
@@ -223,10 +223,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 2회차 주별 상세일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>작품발표회
 6/22(수)
 7,8교시</t>
@@ -288,6 +284,10 @@
   <si>
     <t>Javascript 기본,응용 / CSS 애니메이션, 
 VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 3회차 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -662,6 +662,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,12 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1001,8 +1001,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,39 +1022,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1150,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="24">
         <v>44701</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>31</v>
@@ -1181,17 +1181,17 @@
         <v>5</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1218,10 +1218,10 @@
         <v>44711</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="26"/>
     </row>
@@ -1271,7 +1271,7 @@
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="24">
@@ -1315,8 +1315,8 @@
       <c r="J12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>36</v>
+      <c r="K12" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1328,30 +1328,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
